--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630200.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630200.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F6AD38-9DA5-4135-BC52-13E013A6306A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC7C5B64-8F3C-4F78-91F1-B5F08F3F7A9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T062913.256" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-25T060213.448" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="72">
   <si>
     <t>Do Ty</t>
   </si>
@@ -1078,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ8"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,67 +1645,201 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>24001723</v>
+      </c>
+      <c r="D5">
+        <v>1201</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45344</v>
+      </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G5">
-        <v>126.88</v>
+        <v>35.44</v>
       </c>
       <c r="H5">
-        <v>126.88</v>
+        <v>35.44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
       </c>
       <c r="L5" s="2">
-        <v>2005000</v>
+        <v>560000</v>
       </c>
       <c r="N5" s="2">
-        <v>2005000</v>
+        <v>560000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5">
+        <v>15803</v>
+      </c>
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5">
+        <v>2105173</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>56</v>
       </c>
       <c r="AG5">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5">
+        <v>55377471</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP5">
+        <v>1201</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX5">
+        <v>24001242</v>
+      </c>
+      <c r="AY5">
+        <v>630200</v>
+      </c>
+      <c r="AZ5">
+        <v>1201.6302000000001</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6">
-        <v>126.88</v>
+        <v>162.32</v>
       </c>
       <c r="H6">
-        <v>126.88</v>
+        <v>162.32</v>
       </c>
       <c r="L6" s="2">
-        <v>2005000</v>
+        <v>2565000</v>
       </c>
       <c r="N6" s="2">
-        <v>2005000</v>
+        <v>2565000</v>
       </c>
       <c r="AG6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7">
-        <v>126.88</v>
+        <v>162.32</v>
       </c>
       <c r="H7">
-        <v>126.88</v>
+        <v>162.32</v>
       </c>
       <c r="L7" s="2">
-        <v>2005000</v>
+        <v>2565000</v>
       </c>
       <c r="N7" s="2">
-        <v>2005000</v>
+        <v>2565000</v>
       </c>
       <c r="AG7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>162.32</v>
+      </c>
+      <c r="H8">
+        <v>162.32</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2565000</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2565000</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
         <v>71</v>
       </c>
     </row>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630200.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630200.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC7C5B64-8F3C-4F78-91F1-B5F08F3F7A9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2BB41C-B3AC-4822-BC7B-6E7E9471334C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-25T060213.448" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T060228.834" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
